--- a/out/PBNSC/results_2024-06-11.xlsx
+++ b/out/PBNSC/results_2024-06-11.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,6 +729,99 @@
         <v>170692</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>6-5-5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>new_sequential</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>63.283</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>6276</v>
+      </c>
+      <c r="G11" t="n">
+        <v>170692</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13-7-2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>new_sequential</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.181</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>16705</v>
+      </c>
+      <c r="G12" t="n">
+        <v>726186</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>13-7-2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>new_sequential</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.179</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>16705</v>
+      </c>
+      <c r="G13" t="n">
+        <v>726186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
